--- a/Bet_Tracker.xlsx
+++ b/Bet_Tracker.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$K$1:$K$976</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$K$1:$K$974</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -353,6 +353,201 @@
   <si>
     <t>Over 2.5 Total Goals AS Roma</t>
   </si>
+  <si>
+    <t>Pisa vs Inter OVER 3.5</t>
+  </si>
+  <si>
+    <t>FC St. Pauli</t>
+  </si>
+  <si>
+    <t>Florida Gulf Coast Eagles</t>
+  </si>
+  <si>
+    <t>ncaab_ou</t>
+  </si>
+  <si>
+    <t>LIU Sharks</t>
+  </si>
+  <si>
+    <t>The Citadel Bulldogs</t>
+  </si>
+  <si>
+    <t>East Carolina Pirates</t>
+  </si>
+  <si>
+    <t>Kennesaw State Owls</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Stetson Hatters</t>
+  </si>
+  <si>
+    <t>Indiana Hoosiers</t>
+  </si>
+  <si>
+    <t>Longwood Lancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncaab </t>
+  </si>
+  <si>
+    <t>Louisiana Tech Bulldogs</t>
+  </si>
+  <si>
+    <t>Furman Paladins</t>
+  </si>
+  <si>
+    <t>Vegas Golden Knights</t>
+  </si>
+  <si>
+    <t>New York Rangers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Arizona State Moneyline Cincinnati @ Arizona State</t>
+  </si>
+  <si>
+    <t>Over 146.5 Total Weber State @ Montana State</t>
+  </si>
+  <si>
+    <t>Over 144.5 Total UC Irvine @ UC San Diego</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M Moneyline Alabama A&amp;M @ Texas Southern</t>
+  </si>
+  <si>
+    <t>Over 150.5 Total UC Riverside @ UC Davis</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky Moneyline Eastern Kentucky @ Jacksonville</t>
+  </si>
+  <si>
+    <t>Over 158.5 Total Bowling Green @ Toledo</t>
+  </si>
+  <si>
+    <t>Over 143.5 Total Memphis @ Wichita State</t>
+  </si>
+  <si>
+    <t>Under 139.5 Total Rider @ Mount Saint Marys</t>
+  </si>
+  <si>
+    <t>Under 6.5 Total FLA Panthers @ MIN Wild</t>
+  </si>
+  <si>
+    <t>Under 6.5 Total WAS Capitals @ EDM Oilers</t>
+  </si>
+  <si>
+    <t>CLE Cavaliers Moneyline CLE Cavaliers @ ORL Magic</t>
+  </si>
+  <si>
+    <t>UTA Jazz Moneyline MIA Heat @ UTA Jazz</t>
+  </si>
+  <si>
+    <t>Over 227.5 Total CLE Cavaliers @ ORL Magic</t>
+  </si>
+  <si>
+    <t>nba_ou</t>
+  </si>
+  <si>
+    <t>Nicholls State Moneyline Nicholls State @ SE Louisiana</t>
+  </si>
+  <si>
+    <t>Bucknell Moneyline Bucknell @ Loyola Maryland</t>
+  </si>
+  <si>
+    <t>George Mason Moneyline George Mason @ Rhode Island</t>
+  </si>
+  <si>
+    <t>Under 159.5 Total Mercer @ Wofford</t>
+  </si>
+  <si>
+    <t>Over 151.5 Total Milwaukee @ Youngstown State</t>
+  </si>
+  <si>
+    <t>Under 159.5 Total Elon @ Charleston</t>
+  </si>
+  <si>
+    <t>Drake Moneyline Drake @ Indiana State</t>
+  </si>
+  <si>
+    <t>Over 142.5 Total Clemson @ Georgia Tech</t>
+  </si>
+  <si>
+    <t>Over 150.5 Total North Carolina @ Virginia</t>
+  </si>
+  <si>
+    <t>Tottenham Moneyline Burnley vs Tottenham</t>
+  </si>
+  <si>
+    <t>Under 3.5 Total Goals Bournemouth vs Liverpool</t>
+  </si>
+  <si>
+    <t>Man City Moneyline Man City vs Wolves</t>
+  </si>
+  <si>
+    <t>Liverpool Moneyline Bournemouth vs Liverpool</t>
+  </si>
+  <si>
+    <t>Over 3.5 Total Goals Man City vs Wolves</t>
+  </si>
+  <si>
+    <t>MIA Heat Moneyline MIA Heat @ PHO Suns</t>
+  </si>
+  <si>
+    <t>Over 211.5 Total Alternate BKN Nets @ LA Clippers</t>
+  </si>
+  <si>
+    <t>Over 130.5 Total Chicago State @ Mercyhurst</t>
+  </si>
+  <si>
+    <t>Over 142.5 Total Alternate - NCAAB Oregon @ Washington</t>
+  </si>
+  <si>
+    <t>Under 2.5 Total Goals Freiburg vs Cologne</t>
+  </si>
+  <si>
+    <t>Lille Moneyline Lille vs Strasbourg</t>
+  </si>
+  <si>
+    <t>Over 2.5 Total Goals Juventus vs Napoli</t>
+  </si>
+  <si>
+    <t>Real Sociedad Moneyline Real Sociedad vs Celta Vigo</t>
+  </si>
+  <si>
+    <t>AS Roma Moneyline AS Roma vs AC Milan</t>
+  </si>
+  <si>
+    <t>Stade Brest Moneyline Stade Brest vs Toulouse</t>
+  </si>
+  <si>
+    <t>Girona vs Getafe</t>
+  </si>
+  <si>
+    <t>Over 2.5 Leeds Everton</t>
+  </si>
+  <si>
+    <t>Under 151.5 Morgan Norfolk</t>
+  </si>
+  <si>
+    <t>Over 146.5 Alcorn Bethune-Cookman</t>
+  </si>
+  <si>
+    <t>Over 165.5 Arizona BYU</t>
+  </si>
+  <si>
+    <t>Under 6.5 BOS Bruins NYR</t>
+  </si>
+  <si>
+    <t>Under 6.5 Utah TB</t>
+  </si>
+  <si>
+    <t>Over 226.5 Orlando Cleveland</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -375,6 +570,19 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color rgb="FF1F2328"/>
       <name val="Calibri"/>
     </font>
@@ -393,13 +601,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFD1D9E0"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -422,6 +638,21 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -5527,17 +5758,41 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="A98" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.5716</v>
+      </c>
+      <c r="D98" s="5">
+        <v>-116.0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>115.0</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" ref="F98:F115" si="3">E98-D98</f>
+        <v>231</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="J98" s="8">
+        <f t="shared" ref="J98:J115" si="4">I98-G98</f>
+        <v>0.11</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -5555,17 +5810,41 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="A99" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.879</v>
+      </c>
+      <c r="D99" s="5">
+        <v>-504.0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>-425.0</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="J99" s="8">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -5583,17 +5862,41 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="A100" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.416</v>
+      </c>
+      <c r="D100" s="5">
+        <v>157.0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>190.0</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -5611,17 +5914,41 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="A101" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="8">
+        <v>0.5412</v>
+      </c>
+      <c r="D101" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="E101" s="8">
+        <v>-115.0</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="3"/>
+        <v>-227</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="J101" s="8">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -5639,17 +5966,41 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
+      <c r="A102" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="8">
+        <v>0.5471</v>
+      </c>
+      <c r="D102" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="E102" s="8">
+        <v>-105.0</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="3"/>
+        <v>-215</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -5667,17 +6018,41 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="A103" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="8">
+        <v>0.5268</v>
+      </c>
+      <c r="D103" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="E103" s="8">
+        <v>-110.0</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="3"/>
+        <v>-229</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -5695,17 +6070,41 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="A104" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="8">
+        <v>0.5205</v>
+      </c>
+      <c r="D104" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="E104" s="8">
+        <v>-115.0</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="3"/>
+        <v>-237</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -5723,17 +6122,41 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="A105" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="8">
+        <v>0.535</v>
+      </c>
+      <c r="D105" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="E105" s="8">
+        <v>-110.0</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="3"/>
+        <v>-225</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -5751,17 +6174,41 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="A106" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="8">
+        <v>0.6391</v>
+      </c>
+      <c r="D106" s="8">
+        <v>-132.0</v>
+      </c>
+      <c r="E106" s="8">
+        <v>-105.0</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I106" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="J106" s="8">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -5779,17 +6226,41 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="A107" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="8">
+        <v>0.5518</v>
+      </c>
+      <c r="D107" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="E107" s="8">
+        <v>-110.0</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="3"/>
+        <v>-218</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -5807,17 +6278,41 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="A108" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="8">
+        <v>0.5294</v>
+      </c>
+      <c r="D108" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="E108" s="8">
+        <v>-110.0</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="3"/>
+        <v>-228</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -5835,17 +6330,41 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="A109" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" s="8">
+        <v>0.56</v>
+      </c>
+      <c r="D109" s="8">
+        <v>-103.0</v>
+      </c>
+      <c r="E109" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J109" s="8">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -5863,17 +6382,41 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="A110" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="D110" s="8">
+        <v>146.0</v>
+      </c>
+      <c r="E110" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="3"/>
+        <v>-44</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J110" s="8">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -5891,17 +6434,41 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+      <c r="A111" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="8">
+        <v>0.5163</v>
+      </c>
+      <c r="D111" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="E111" s="8">
+        <v>-112.0</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="3"/>
+        <v>-236</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -5919,17 +6486,41 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="A112" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="11">
+        <v>0.6143</v>
+      </c>
+      <c r="D112" s="11">
+        <v>-124.0</v>
+      </c>
+      <c r="E112" s="8">
+        <v>-122.0</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -5947,17 +6538,41 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+      <c r="A113" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="11">
+        <v>0.5935</v>
+      </c>
+      <c r="D113" s="11">
+        <v>-114.0</v>
+      </c>
+      <c r="E113" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="J113" s="8">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -5975,17 +6590,41 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="A114" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="11">
+        <v>0.5951</v>
+      </c>
+      <c r="D114" s="11">
+        <v>-115.0</v>
+      </c>
+      <c r="E114" s="8">
+        <v>-110.0</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -6003,17 +6642,41 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
+      <c r="A115" s="3">
+        <v>46045.0</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0.437</v>
+      </c>
+      <c r="D115" s="12">
+        <v>179.0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>270.0</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -6031,17 +6694,39 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
+      <c r="A116" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D116" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -6059,17 +6744,39 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="A117" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.6209</v>
+      </c>
+      <c r="D117" s="1">
+        <v>-123.0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>-105.0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -6087,17 +6794,39 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="A118" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.5817</v>
+      </c>
+      <c r="D118" s="1">
+        <v>-105.0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>-108.0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>-3.0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -6115,17 +6844,39 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="A119" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D119" s="1">
+        <v>-120.0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>-115.0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -6143,17 +6894,39 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
+      <c r="A120" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.5324</v>
+      </c>
+      <c r="D120" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>-110.0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>-226.0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -6171,17 +6944,39 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
+      <c r="A121" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D121" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -6199,17 +6994,39 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
+      <c r="A122" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.6053</v>
+      </c>
+      <c r="D122" s="1">
+        <v>-115.0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>-105.0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -6227,17 +7044,39 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
+      <c r="A123" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.7037</v>
+      </c>
+      <c r="D123" s="1">
+        <v>-173.0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>-110.0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -6255,17 +7094,39 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
+      <c r="A124" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.5913</v>
+      </c>
+      <c r="D124" s="1">
+        <v>-109.0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>-110.0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -6283,17 +7144,39 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
+      <c r="A125" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.6352</v>
+      </c>
+      <c r="D125" s="1">
+        <v>-135.0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>-135.0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -6311,17 +7194,39 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
+      <c r="A126" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.5678</v>
+      </c>
+      <c r="D126" s="1">
+        <v>-103.0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>208.0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -6339,17 +7244,39 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
+      <c r="A127" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.427</v>
+      </c>
+      <c r="D127" s="1">
+        <v>185.0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>-71.0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -6367,17 +7294,39 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
+      <c r="A128" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.469</v>
+      </c>
+      <c r="D128" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -6395,17 +7344,39 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
+      <c r="A129" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.5936</v>
+      </c>
+      <c r="D129" s="1">
+        <v>-110.0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>-110.0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -6423,17 +7394,39 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
+      <c r="A130" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.58</v>
+      </c>
+      <c r="D130" s="1">
+        <v>-111.0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>-102.0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -6451,17 +7444,39 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
+      <c r="A131" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="D131" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -6479,17 +7494,39 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
+      <c r="A132" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D132" s="1">
+        <v>-133.0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>-122.0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -6507,17 +7544,39 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
+      <c r="A133" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.5854</v>
+      </c>
+      <c r="D133" s="1">
+        <v>-106.0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>-113.0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>-7.0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -6535,17 +7594,39 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
+      <c r="A134" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.6012</v>
+      </c>
+      <c r="D134" s="1">
+        <v>-113.0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>-113.0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -6563,17 +7644,39 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
+      <c r="A135" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.5885</v>
+      </c>
+      <c r="D135" s="1">
+        <v>-108.0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>-108.0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -6591,17 +7694,39 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
+      <c r="A136" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="D136" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -6619,17 +7744,39 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
+      <c r="A137" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.5982</v>
+      </c>
+      <c r="D137" s="1">
+        <v>-112.0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>-113.0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -6647,17 +7794,39 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
+      <c r="A138" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.608</v>
+      </c>
+      <c r="D138" s="1">
+        <v>-116.0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>-108.0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -6675,17 +7844,39 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+      <c r="A139" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.509</v>
+      </c>
+      <c r="D139" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -6703,17 +7894,39 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
+      <c r="A140" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.7238</v>
+      </c>
+      <c r="D140" s="1">
+        <v>-221.0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>-169.0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -6731,17 +7944,39 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
+      <c r="A141" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.821</v>
+      </c>
+      <c r="D141" s="1">
+        <v>-349.0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>-323.0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -6759,17 +7994,39 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+      <c r="A142" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.571</v>
+      </c>
+      <c r="D142" s="1">
+        <v>-114.0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>-115.0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -6787,17 +8044,39 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
+      <c r="A143" s="3">
+        <v>46046.0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.466</v>
+      </c>
+      <c r="D143" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="F143" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -6815,17 +8094,39 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
+      <c r="A144" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.469</v>
+      </c>
+      <c r="D144" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -6843,17 +8144,39 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
+      <c r="A145" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.6074</v>
+      </c>
+      <c r="D145" s="1">
+        <v>-116.0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>-105.0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -6871,17 +8194,39 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
+      <c r="A146" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.6156</v>
+      </c>
+      <c r="D146" s="1">
+        <v>-120.0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>-115.0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -6899,17 +8244,39 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
+      <c r="A147" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.7604</v>
+      </c>
+      <c r="D147" s="1">
+        <v>-223.0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>-130.0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -6927,17 +8294,39 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
+      <c r="A148" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.5903</v>
+      </c>
+      <c r="D148" s="1">
+        <v>-125.0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -6955,17 +8344,39 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
+      <c r="A149" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.525</v>
+      </c>
+      <c r="D149" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -6983,17 +8394,39 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
+      <c r="A150" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.4763</v>
+      </c>
+      <c r="D150" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -7011,17 +8444,39 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
+      <c r="A151" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.496</v>
+      </c>
+      <c r="D151" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="J151" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -7039,17 +8494,39 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
+      <c r="A152" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.419</v>
+      </c>
+      <c r="D152" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -7067,17 +8544,39 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
+      <c r="A153" s="3">
+        <v>46047.0</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D153" s="1">
+        <v>205.0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -7095,17 +8594,39 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+      <c r="A154" s="3">
+        <v>46048.0</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.519</v>
+      </c>
+      <c r="D154" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -7123,17 +8644,39 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
+      <c r="A155" s="3">
+        <v>46048.0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.5475</v>
+      </c>
+      <c r="D155" s="1">
+        <v>-105.0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -7151,17 +8694,39 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
+      <c r="A156" s="3">
+        <v>46048.0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.7506</v>
+      </c>
+      <c r="D156" s="1">
+        <v>-213.0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>313.0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -7179,17 +8744,39 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
+      <c r="A157" s="3">
+        <v>46048.0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.6308</v>
+      </c>
+      <c r="D157" s="1">
+        <v>-128.0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>-120.0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -7207,17 +8794,39 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
+      <c r="A158" s="3">
+        <v>46048.0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.612</v>
+      </c>
+      <c r="D158" s="1">
+        <v>-118.0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>-110.0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -7235,17 +8844,39 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
+      <c r="A159" s="3">
+        <v>46048.0</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.632</v>
+      </c>
+      <c r="D159" s="1">
+        <v>-128.0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>-108.0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -7263,17 +8894,39 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
+      <c r="A160" s="3">
+        <v>46048.0</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.6336</v>
+      </c>
+      <c r="D160" s="1">
+        <v>-129.0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>-125.0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -7291,17 +8944,39 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
+      <c r="A161" s="3">
+        <v>46048.0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.5526</v>
+      </c>
+      <c r="D161" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -30082,64 +31757,8 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975">
-      <c r="A975" s="2"/>
-      <c r="B975" s="2"/>
-      <c r="C975" s="2"/>
-      <c r="D975" s="2"/>
-      <c r="E975" s="2"/>
-      <c r="F975" s="2"/>
-      <c r="G975" s="2"/>
-      <c r="H975" s="2"/>
-      <c r="I975" s="2"/>
-      <c r="J975" s="2"/>
-      <c r="K975" s="2"/>
-      <c r="L975" s="2"/>
-      <c r="M975" s="2"/>
-      <c r="N975" s="2"/>
-      <c r="O975" s="2"/>
-      <c r="P975" s="2"/>
-      <c r="Q975" s="2"/>
-      <c r="R975" s="2"/>
-      <c r="S975" s="2"/>
-      <c r="T975" s="2"/>
-      <c r="U975" s="2"/>
-      <c r="V975" s="2"/>
-      <c r="W975" s="2"/>
-      <c r="X975" s="2"/>
-      <c r="Y975" s="2"/>
-      <c r="Z975" s="2"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="2"/>
-      <c r="B976" s="2"/>
-      <c r="C976" s="2"/>
-      <c r="D976" s="2"/>
-      <c r="E976" s="2"/>
-      <c r="F976" s="2"/>
-      <c r="G976" s="2"/>
-      <c r="H976" s="2"/>
-      <c r="I976" s="2"/>
-      <c r="J976" s="2"/>
-      <c r="K976" s="2"/>
-      <c r="L976" s="2"/>
-      <c r="M976" s="2"/>
-      <c r="N976" s="2"/>
-      <c r="O976" s="2"/>
-      <c r="P976" s="2"/>
-      <c r="Q976" s="2"/>
-      <c r="R976" s="2"/>
-      <c r="S976" s="2"/>
-      <c r="T976" s="2"/>
-      <c r="U976" s="2"/>
-      <c r="V976" s="2"/>
-      <c r="W976" s="2"/>
-      <c r="X976" s="2"/>
-      <c r="Y976" s="2"/>
-      <c r="Z976" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$K$1:$K$976"/>
+  <autoFilter ref="$K$1:$K$974"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>